--- a/SMLToolbox/RecodingDataSets/RecodingNumericalVectors/recoded_car_TEST1.xlsx
+++ b/SMLToolbox/RecodingDataSets/RecodingNumericalVectors/recoded_car_TEST1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\SML\SMLToolBox\RecodingDataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\SML\SMLToolBox\RecodingDataSets\RecodingNumericalVectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF293768-FFF8-4501-8066-43CAEA7AAED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1D30A-4856-4929-8D40-743A894BBD5D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="9420" xr2:uid="{FBA0C6AE-99A0-42C6-B520-D336248B386A}"/>
   </bookViews>
